--- a/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-3rdRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-3rdRepayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -358,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -388,6 +395,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,11 +1138,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="13"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1232,7 +1243,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>238.89</v>
+        <v>237.9</v>
       </c>
       <c r="B3" s="9">
         <v>170.95</v>
@@ -1244,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>67.94</v>
+        <v>66.95</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -1300,7 +1311,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1505,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,21 +1837,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10">
-        <v>42099</v>
+        <v>42095</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>766.3</v>
+        <v>718.65</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>47.65</v>
       </c>
       <c r="H8" s="9">
-        <v>33.99</v>
+        <v>33</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
@@ -1849,14 +1860,14 @@
         <v>50.08</v>
       </c>
       <c r="K8" s="9">
-        <v>850.37</v>
+        <v>83.08</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>718.65</v>
       </c>
       <c r="O8" s="9">
         <v>0</v>
@@ -1865,7 +1876,7 @@
         <v>50.08</v>
       </c>
       <c r="Q8" s="9">
-        <v>800.29</v>
+        <v>751.65</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1889,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1931,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>983</v>
+        <v>666</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -1944,7 +1955,7 @@
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>982</v>
+        <v>665</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -1968,7 +1979,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>981</v>
+        <v>664</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -1992,7 +2003,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>980</v>
+        <v>663</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -2016,7 +2027,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>979</v>
+        <v>662</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -2040,7 +2051,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>978</v>
+        <v>661</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -2064,7 +2075,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>977</v>
+        <v>660</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>36</v>
@@ -2088,7 +2099,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>976</v>
+        <v>659</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -2112,7 +2123,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>975</v>
+        <v>658</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>36</v>
@@ -2136,7 +2147,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>974</v>
+        <v>657</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
@@ -2160,7 +2171,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>973</v>
+        <v>656</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -2184,7 +2195,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>964</v>
+        <v>647</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>36</v>
@@ -2208,7 +2219,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>963</v>
+        <v>646</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
@@ -2232,7 +2243,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>962</v>
+        <v>645</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -2256,7 +2267,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>951</v>
+        <v>634</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>36</v>
@@ -2280,7 +2291,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>950</v>
+        <v>633</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>36</v>
@@ -2304,7 +2315,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>949</v>
+        <v>632</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
@@ -2335,13 +2346,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2390,7 +2401,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -2421,7 +2432,7 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
@@ -2452,7 +2463,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>

--- a/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-3rdRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-3rdRepayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,21 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -365,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -396,6 +411,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2346,150 +2372,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="15"/>
+    <col min="5" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>41958</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>41988</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>42095</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2502,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2587,7 @@
       <c r="G2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="9"/>
@@ -2587,7 +2615,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="18" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-3rdRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-3rdRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="79">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -195,15 +195,9 @@
     <t>% Loan Amount + Interest</t>
   </si>
   <si>
-    <t>$2.43</t>
-  </si>
-  <si>
     <t>$0</t>
   </si>
   <si>
-    <t>$50.08</t>
-  </si>
-  <si>
     <t>JE Id</t>
   </si>
   <si>
@@ -258,38 +252,35 @@
     <t>L1076</t>
   </si>
   <si>
-    <t>Penalties Receivable(5)</t>
-  </si>
-  <si>
-    <t>$ 2.43</t>
-  </si>
-  <si>
     <t>$ 43.98</t>
   </si>
   <si>
-    <t>$ 553.59</t>
-  </si>
-  <si>
     <t>$ 600</t>
   </si>
   <si>
     <t>L1086</t>
   </si>
   <si>
-    <t>$ 75.96</t>
-  </si>
-  <si>
-    <t>$ 1,921.61</t>
-  </si>
-  <si>
     <t>$ 2,000</t>
+  </si>
+  <si>
+    <t>$51.73</t>
+  </si>
+  <si>
+    <t>$ 556.02</t>
+  </si>
+  <si>
+    <t>$ 75.89</t>
+  </si>
+  <si>
+    <t>$ 1,924.11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,14 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -380,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -411,16 +394,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +727,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>31</v>
@@ -775,27 +749,27 @@
         <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -804,25 +778,25 @@
         <v>41988</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -831,25 +805,25 @@
         <v>41988</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -858,48 +832,21 @@
         <v>41988</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="10">
-        <v>41988</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="9"/>
+      <c r="I4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -908,10 +855,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +869,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>31</v>
@@ -931,27 +878,27 @@
         <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -960,25 +907,25 @@
         <v>42095</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -987,25 +934,25 @@
         <v>42095</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -1014,48 +961,21 @@
         <v>42095</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="10">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9"/>
+      <c r="H4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1224,7 +1144,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,25 +1174,25 @@
         <v>5000</v>
       </c>
       <c r="B2" s="8">
-        <v>3311.91</v>
+        <v>3316.84</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>1688.09</v>
+        <v>1683.16</v>
       </c>
       <c r="F2" s="9">
-        <v>961.03</v>
+        <v>956.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>237.9</v>
+        <v>237.73</v>
       </c>
       <c r="B3" s="9">
-        <v>170.95</v>
+        <v>170.88</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -1281,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>66.95</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -1309,13 +1229,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>54.94</v>
+        <v>51.73</v>
       </c>
       <c r="B5" s="9">
-        <v>4.8600000000000003</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -1423,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1446,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1515,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="G8" s="9">
-        <v>784.54</v>
+        <v>786.19</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1451,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9">
@@ -1730,25 +1650,25 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="9">
-        <v>848.97</v>
+        <v>848.99</v>
       </c>
       <c r="G5" s="8">
-        <v>2470.58</v>
+        <v>2470.56</v>
       </c>
       <c r="H5" s="9">
-        <v>38.75</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9">
@@ -1777,13 +1697,13 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>850.51</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1620.07</v>
+        <v>850.56</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1620</v>
       </c>
       <c r="H6" s="9">
-        <v>37.21</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -1795,20 +1715,20 @@
         <v>887.72</v>
       </c>
       <c r="L6" s="9">
-        <v>819.7</v>
+        <v>824.56</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9">
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>819.7</v>
+        <v>824.56</v>
       </c>
       <c r="P6" s="9">
         <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>68.02</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1824,13 +1744,13 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>853.77</v>
+        <v>853.82</v>
       </c>
       <c r="G7" s="9">
-        <v>766.3</v>
+        <v>766.18</v>
       </c>
       <c r="H7" s="9">
-        <v>33.950000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -1871,38 +1791,38 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>718.65</v>
+        <v>714.45</v>
       </c>
       <c r="G8" s="9">
-        <v>47.65</v>
+        <v>51.73</v>
       </c>
       <c r="H8" s="9">
-        <v>33</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="K8" s="9">
-        <v>83.08</v>
+        <v>84.68</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9">
-        <v>718.65</v>
+        <v>714.45</v>
       </c>
       <c r="O8" s="9">
         <v>0</v>
       </c>
       <c r="P8" s="9">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="Q8" s="9">
-        <v>751.65</v>
+        <v>747.4</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1835,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1877,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>666</v>
+        <v>262</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -1976,12 +1896,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8">
-        <v>1755.04</v>
+        <v>1750.01</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>665</v>
+        <v>261</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -1993,19 +1913,19 @@
         <v>38</v>
       </c>
       <c r="E3" s="9">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="8">
-        <v>3755.04</v>
+        <v>3750.01</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>664</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -2017,19 +1937,19 @@
         <v>39</v>
       </c>
       <c r="E4" s="9">
-        <v>37.89</v>
+        <v>37.83</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8">
-        <v>3755.04</v>
+        <v>3750.01</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>663</v>
+        <v>259</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -2041,7 +1961,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="9">
-        <v>37.89</v>
+        <v>37.83</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2053,7 +1973,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>662</v>
+        <v>258</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -2065,19 +1985,19 @@
         <v>39</v>
       </c>
       <c r="E6" s="9">
-        <v>33.9</v>
+        <v>33.86</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8">
-        <v>3717.15</v>
+        <v>3712.18</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>661</v>
+        <v>257</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -2089,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="9">
-        <v>33.9</v>
+        <v>33.86</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -2101,7 +2021,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>660</v>
+        <v>256</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>36</v>
@@ -2113,19 +2033,19 @@
         <v>39</v>
       </c>
       <c r="E8" s="9">
-        <v>37.159999999999997</v>
+        <v>37.11</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8">
-        <v>3683.25</v>
+        <v>3678.32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>659</v>
+        <v>255</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -2137,7 +2057,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="9">
-        <v>37.159999999999997</v>
+        <v>37.11</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2149,7 +2069,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>658</v>
+        <v>254</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>36</v>
@@ -2161,19 +2081,19 @@
         <v>39</v>
       </c>
       <c r="E10" s="9">
-        <v>41.92</v>
+        <v>39.47</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8">
-        <v>3646.09</v>
+        <v>3641.21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>657</v>
+        <v>253</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
@@ -2185,7 +2105,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="9">
-        <v>41.92</v>
+        <v>39.47</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2197,7 +2117,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>656</v>
+        <v>252</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -2216,12 +2136,12 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8">
-        <v>3604.17</v>
+        <v>3601.74</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>647</v>
+        <v>243</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>36</v>
@@ -2233,19 +2153,19 @@
         <v>39</v>
       </c>
       <c r="E13" s="9">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="8">
-        <v>4204.17</v>
+        <v>4201.74</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>646</v>
+        <v>242</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
@@ -2257,7 +2177,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="9">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2269,7 +2189,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>645</v>
+        <v>241</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -2293,7 +2213,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>634</v>
+        <v>230</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>36</v>
@@ -2317,7 +2237,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>633</v>
+        <v>229</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>36</v>
@@ -2341,7 +2261,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>632</v>
+        <v>228</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>36</v>
@@ -2370,156 +2290,96 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="15"/>
-    <col min="5" max="6" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="17">
-        <v>41958</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="10">
+        <v>42095</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="17">
-        <v>41988</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="17">
-        <v>42095</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="K3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,14 +2391,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>31</v>
@@ -2547,27 +2407,27 @@
         <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -2576,25 +2436,25 @@
         <v>41917</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -2603,20 +2463,20 @@
         <v>41917</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="18" t="s">
-        <v>66</v>
+      <c r="I3" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2500,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>31</v>
@@ -2649,27 +2509,27 @@
         <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -2678,25 +2538,25 @@
         <v>41958</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -2705,25 +2565,25 @@
         <v>41958</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -2732,19 +2592,19 @@
         <v>41958</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" s="9"/>
     </row>
